--- a/IS1308_SSAS_MultidimentionalAndDataMining/IS1308_SSAS_MultidimentionalAndDataMining/Question 6.xlsx
+++ b/IS1308_SSAS_MultidimentionalAndDataMining/IS1308_SSAS_MultidimentionalAndDataMining/Question 6.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="tmp3388" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
   <si>
     <t>Insect Quantity</t>
   </si>
@@ -85,6 +85,165 @@
   </si>
   <si>
     <t>Chuon chuon</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542613</t>
+  </si>
+  <si>
+    <t>2021 - 05</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542680</t>
+  </si>
+  <si>
+    <t>2019 - 10</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542681</t>
+  </si>
+  <si>
+    <t>2020 - 10</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542682</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542683</t>
+  </si>
+  <si>
+    <t>2019 - 11</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542684</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542685</t>
+  </si>
+  <si>
+    <t>2020 - 05</t>
+  </si>
+  <si>
+    <t>Cang thang</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542686</t>
+  </si>
+  <si>
+    <t>2021 - 02</t>
+  </si>
+  <si>
+    <t>2021 - 07</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542688</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542689</t>
+  </si>
+  <si>
+    <t>2020 - 09</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542691</t>
+  </si>
+  <si>
+    <t>2019 - 08</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542990</t>
+  </si>
+  <si>
+    <t>2020 - 06</t>
+  </si>
+  <si>
+    <t>2020 - 07</t>
+  </si>
+  <si>
+    <t>9.881173, 105.542687</t>
+  </si>
+  <si>
+    <t>2020 - 02</t>
+  </si>
+  <si>
+    <t>9.881174, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881175, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881176, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881177, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881178, 105.542687</t>
+  </si>
+  <si>
+    <t>2020 - 12</t>
+  </si>
+  <si>
+    <t>2021 - 03</t>
+  </si>
+  <si>
+    <t>9.881179, 105.542687</t>
+  </si>
+  <si>
+    <t>2020 - 08</t>
+  </si>
+  <si>
+    <t>2021 - 04</t>
+  </si>
+  <si>
+    <t>9.881182, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881183, 105.542687</t>
+  </si>
+  <si>
+    <t>2020 - 01</t>
+  </si>
+  <si>
+    <t>9.881184, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881186, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881187, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881188, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881189, 105.542687</t>
+  </si>
+  <si>
+    <t>2019 - 12</t>
+  </si>
+  <si>
+    <t>9.881190, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881191, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881193, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881194, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881195, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881196, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881197, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881198, 105.542687</t>
   </si>
 </sst>
 </file>
@@ -729,6 +888,50 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -761,90 +964,931 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'tmp3388'!$A$2:$A$27</c:f>
+              <c:f>'tmp3388'!$A$2:$A$288</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="167"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Canh mang</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Sau buom</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>Chau chau</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Hai canh</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>Sau buom</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>Canh cung</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>Canh mang</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>Canh cung</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>Canh nua</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Hai canh</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>Canh mang</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Hai canh</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Canh mang</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Chuon chuon</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>Cang thang</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>2021 - 05</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2020 - 03</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>2021 - 01</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>2019 - 09</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>2020 - 03</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>2020 - 04</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>2020 - 11</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>2020 - 04</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2019 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2019 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2021 - 05</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2020 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2020 - 04</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2019 - 11</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2020 - 03</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2020 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2020 - 05</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2021 - 02</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2021 - 07</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2020 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2021 - 05</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2020 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>2021 - 01</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2019 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2019 - 11</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2021 - 07</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2019 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2020 - 06</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2020 - 07</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2020 - 02</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2020 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2021 - 05</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2019 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2020 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2021 - 07</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2019 - 11</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2020 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2020 - 12</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2021 - 03</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2020 - 07</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2020 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2020 - 12</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2021 - 04</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2021 - 04</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>2020 - 01</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2021 - 03</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>2021 - 04</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2021 - 02</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>2021 - 04</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2019 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>2020 - 06</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>2020 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2020 - 12</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2021 - 03</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>2020 - 05</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>2020 - 12</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>2020 - 07</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>2021 - 02</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2019 - 12</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>2019 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>2020 - 04</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>2020 - 05</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2019 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>2019 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>2019 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2021 - 03</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>2021 - 07</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>2020 - 02</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>2020 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>2020 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>2021 - 02</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>2020 - 06</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>2020 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>2020 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>2020 - 10</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>2020 - 11</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>2020 - 08</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2020 - 09</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>2021 - 01</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>2021 - 02</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>2019 - 11</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>2020 - 03</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>9.881172, 105.542613</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>9.881172, 105.542614</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>9.881172, 105.542615</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>9.881172, 105.542644</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>9.881172, 105.542680</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>9.881172, 105.542681</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>9.881172, 105.542682</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>9.881172, 105.542683</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>9.881172, 105.542684</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>9.881172, 105.542685</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>9.881172, 105.542686</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>9.881172, 105.542688</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>9.881172, 105.542689</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>9.881172, 105.542691</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>9.881172, 105.542990</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>9.881173, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>9.881174, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>9.881175, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>9.881176, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>9.881177, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>9.881178, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>9.881179, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>9.881182, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>9.881183, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>9.881184, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>9.881186, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>9.881187, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>9.881188, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>9.881189, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>9.881190, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>9.881191, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>9.881193, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>9.881194, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>9.881195, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>9.881196, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>9.881197, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>9.881198, 105.542687</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -852,54 +1896,510 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'tmp3388'!$B$2:$B$27</c:f>
+              <c:f>'tmp3388'!$B$2:$B$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,13 +3171,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>206</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -1702,28 +3202,81 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PC" refreshedDate="44041.045892824077" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PC" refreshedDate="44041.117712962965" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Insect Quantity]" caption="Insect Quantity" numFmtId="0" hierarchy="34" level="32767"/>
     <cacheField name="[Trap].[Location].[Location]" caption="Location" numFmtId="0" hierarchy="27" level="1">
-      <sharedItems count="3">
+      <sharedItems count="37">
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542613]" c="9.881172, 105.542613"/>
         <s v="[Trap].[Location].&amp;[9.881172, 105.542614]" c="9.881172, 105.542614"/>
         <s v="[Trap].[Location].&amp;[9.881172, 105.542615]" c="9.881172, 105.542615"/>
         <s v="[Trap].[Location].&amp;[9.881172, 105.542644]" c="9.881172, 105.542644"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542680]" c="9.881172, 105.542680"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542681]" c="9.881172, 105.542681"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542682]" c="9.881172, 105.542682"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542683]" c="9.881172, 105.542683"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542684]" c="9.881172, 105.542684"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542685]" c="9.881172, 105.542685"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542686]" c="9.881172, 105.542686"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542688]" c="9.881172, 105.542688"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542689]" c="9.881172, 105.542689"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542691]" c="9.881172, 105.542691"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542990]" c="9.881172, 105.542990"/>
+        <s v="[Trap].[Location].&amp;[9.881173, 105.542687]" c="9.881173, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881174, 105.542687]" c="9.881174, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881175, 105.542687]" c="9.881175, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881176, 105.542687]" c="9.881176, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881177, 105.542687]" c="9.881177, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881178, 105.542687]" c="9.881178, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881179, 105.542687]" c="9.881179, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881182, 105.542687]" c="9.881182, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881183, 105.542687]" c="9.881183, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881184, 105.542687]" c="9.881184, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881186, 105.542687]" c="9.881186, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881187, 105.542687]" c="9.881187, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881188, 105.542687]" c="9.881188, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881189, 105.542687]" c="9.881189, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881190, 105.542687]" c="9.881190, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881191, 105.542687]" c="9.881191, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881193, 105.542687]" c="9.881193, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881194, 105.542687]" c="9.881194, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881195, 105.542687]" c="9.881195, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881196, 105.542687]" c="9.881196, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881197, 105.542687]" c="9.881197, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881198, 105.542687]" c="9.881198, 105.542687"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Time].[Year Month].[Year Month]" caption="Year Month" numFmtId="0" hierarchy="26" level="1">
-      <sharedItems count="5">
+      <sharedItems count="23">
+        <s v="[Time].[Year Month].&amp;[2019 - 08]" c="2019 - 08"/>
         <s v="[Time].[Year Month].&amp;[2019 - 09]" c="2019 - 09"/>
+        <s v="[Time].[Year Month].&amp;[2019 - 10]" c="2019 - 10"/>
+        <s v="[Time].[Year Month].&amp;[2019 - 11]" c="2019 - 11"/>
+        <s v="[Time].[Year Month].&amp;[2019 - 12]" c="2019 - 12"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 01]" c="2020 - 01"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 02]" c="2020 - 02"/>
         <s v="[Time].[Year Month].&amp;[2020 - 03]" c="2020 - 03"/>
         <s v="[Time].[Year Month].&amp;[2020 - 04]" c="2020 - 04"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 05]" c="2020 - 05"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 06]" c="2020 - 06"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 07]" c="2020 - 07"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 08]" c="2020 - 08"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 09]" c="2020 - 09"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 10]" c="2020 - 10"/>
         <s v="[Time].[Year Month].&amp;[2020 - 11]" c="2020 - 11"/>
+        <s v="[Time].[Year Month].&amp;[2020 - 12]" c="2020 - 12"/>
         <s v="[Time].[Year Month].&amp;[2021 - 01]" c="2021 - 01"/>
+        <s v="[Time].[Year Month].&amp;[2021 - 02]" c="2021 - 02"/>
+        <s v="[Time].[Year Month].&amp;[2021 - 03]" c="2021 - 03"/>
+        <s v="[Time].[Year Month].&amp;[2021 - 04]" c="2021 - 04"/>
+        <s v="[Time].[Year Month].&amp;[2021 - 05]" c="2021 - 05"/>
+        <s v="[Time].[Year Month].&amp;[2021 - 07]" c="2021 - 07"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Insect].[Sub Kind].[Sub Kind]" caption="Sub Kind" numFmtId="0" hierarchy="17" level="1">
-      <sharedItems count="7">
+      <sharedItems count="8">
+        <s v="[Insect].[Sub Kind].&amp;[Cang thang]" c="Cang thang"/>
         <s v="[Insect].[Sub Kind].&amp;[Canh cung]" c="Canh cung"/>
         <s v="[Insect].[Sub Kind].&amp;[Canh mang]" c="Canh mang"/>
         <s v="[Insect].[Sub Kind].&amp;[Canh nua]" c="Canh nua"/>
@@ -1821,30 +3374,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
-  <location ref="A1:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A1:B288" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="8">
+      <items count="38">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1852,6 +3387,77 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="24">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1861,78 +3467,861 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="287">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
+      <x v="7"/>
     </i>
     <i r="2">
       <x v="2"/>
     </i>
     <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
     </i>
     <i r="2">
       <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i r="2">
       <x/>
@@ -1986,14 +4375,7 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy>
-      <members count="4" level="1">
-        <member name=""/>
-        <member name=""/>
-        <member name="[Trap].[Location].&amp;[9.881172, 105.542633]"/>
-        <member name=""/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -2282,7 +4664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2304,18 +4686,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>707</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,87 +4705,87 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
+      <c r="A5" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>89</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>588</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B11" s="1">
         <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="B13" s="1">
-        <v>39</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>250</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,39 +4793,39 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
+      <c r="A17" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>62</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
+      <c r="A18" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2451,15 +4833,15 @@
         <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,47 +4849,2135 @@
         <v>11</v>
       </c>
       <c r="B22" s="1">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
+      <c r="A24" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
+      <c r="A25" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1">
         <v>5</v>
       </c>
-      <c r="B27" s="1">
-        <v>1213</v>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B151" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B162" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" s="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B177" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B178" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B181" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B200" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B201" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B203" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B206" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B207" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B209" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B219" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B221" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B224" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B231" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B233" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B236" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B237" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B240" s="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B241" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B247" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B251" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B256" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B265" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B266" s="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B267" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B269" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B274" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B276" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B279" s="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B280" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B286" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B287" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" s="1">
+        <v>10648</v>
       </c>
     </row>
   </sheetData>
